--- a/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
+++ b/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-07T20:15:41+02:00</t>
+    <t>2025-05-07T21:31:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (http://example.org/example-publisher, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
+++ b/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-07T21:31:29+02:00</t>
+    <t>2025-05-12T20:06:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (http://example.org/example-publisher, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
+++ b/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T20:06:16+02:00</t>
+    <t>2025-05-13T19:16:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (http://example.org/example-publisher, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
+++ b/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T19:16:00+02:00</t>
+    <t>2025-05-14T23:21:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
+++ b/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T23:21:35+02:00</t>
+    <t>2025-05-14T23:43:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
+++ b/docs/StructureDefinition-tr-aw-breathing-sound-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T23:43:24+02:00</t>
+    <t>2025-05-19T18:20:06+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/medinterop-renner/TraumaIG, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
